--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Acvr2a.xlsx
@@ -546,10 +546,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>0.7152802856753333</v>
+        <v>0.5045077167699999</v>
       </c>
       <c r="R2">
-        <v>6.437522571078</v>
+        <v>4.54056945093</v>
       </c>
       <c r="S2">
-        <v>0.09132445858081654</v>
+        <v>0.1204981228448883</v>
       </c>
       <c r="T2">
-        <v>0.1168341550385494</v>
+        <v>0.1369634438175025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
         <v>1.612668365374333</v>
@@ -638,10 +638,10 @@
         <v>14.514015288369</v>
       </c>
       <c r="S3">
-        <v>0.2058997966079415</v>
+        <v>0.3851745064338268</v>
       </c>
       <c r="T3">
-        <v>0.2634138667026405</v>
+        <v>0.4378062132950616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.163767</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>0.3229401354903333</v>
+        <v>0.4012199426553333</v>
       </c>
       <c r="R4">
-        <v>2.906461219413</v>
+        <v>3.610979483898</v>
       </c>
       <c r="S4">
-        <v>0.04123185500607637</v>
+        <v>0.09582856382738339</v>
       </c>
       <c r="T4">
-        <v>0.05274916506670456</v>
+        <v>0.1089229425986909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.163767</v>
       </c>
       <c r="I5">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J5">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>0.4449636459455</v>
+        <v>0.6611000026164999</v>
       </c>
       <c r="R5">
-        <v>2.669781875673</v>
+        <v>3.966600015699</v>
       </c>
       <c r="S5">
-        <v>0.0568113855056865</v>
+        <v>0.1578990899050129</v>
       </c>
       <c r="T5">
-        <v>0.04845368791138163</v>
+        <v>0.1196500140054944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.163767</v>
       </c>
       <c r="I6">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J6">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>0.4160124880716666</v>
+        <v>0.2550092563563334</v>
       </c>
       <c r="R6">
-        <v>3.744112392645</v>
+        <v>2.295083307207</v>
       </c>
       <c r="S6">
-        <v>0.05311500400172923</v>
+        <v>0.06090716886500614</v>
       </c>
       <c r="T6">
-        <v>0.0679516386830762</v>
+        <v>0.06922975565074778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H7">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I7">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J7">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>0.8799654836183334</v>
+        <v>0.11051499894</v>
       </c>
       <c r="R7">
-        <v>5.27979290171</v>
+        <v>0.66308999364</v>
       </c>
       <c r="S7">
-        <v>0.1123508825430249</v>
+        <v>0.0263957308794661</v>
       </c>
       <c r="T7">
-        <v>0.09582259877754835</v>
+        <v>0.02000169583822986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H8">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I8">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J8">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
-        <v>1.983967021700834</v>
+        <v>0.353263263902</v>
       </c>
       <c r="R8">
-        <v>11.903802130205</v>
+        <v>2.119579583412</v>
       </c>
       <c r="S8">
-        <v>0.2533058966219904</v>
+        <v>0.08437444811107919</v>
       </c>
       <c r="T8">
-        <v>0.2160412873543825</v>
+        <v>0.06393579535049608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H9">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I9">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J9">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>0.3972934501308334</v>
+        <v>0.087889283084</v>
       </c>
       <c r="R9">
-        <v>2.383760700785</v>
+        <v>0.527335698504</v>
       </c>
       <c r="S9">
-        <v>0.05072502340344345</v>
+        <v>0.02099173764399147</v>
       </c>
       <c r="T9">
-        <v>0.04326270925115819</v>
+        <v>0.01590675224673037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H10">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I10">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J10">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>0.5474114941212501</v>
+        <v>0.144817341063</v>
       </c>
       <c r="R10">
-        <v>2.189645976485</v>
+        <v>0.5792693642519999</v>
       </c>
       <c r="S10">
-        <v>0.06989156463936218</v>
+        <v>0.03458860424415439</v>
       </c>
       <c r="T10">
-        <v>0.03973973445087975</v>
+        <v>0.01747329886335711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H11">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I11">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J11">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>0.5117946595041667</v>
+        <v>0.055861083506</v>
       </c>
       <c r="R11">
-        <v>3.070767957025</v>
+        <v>0.335166501036</v>
       </c>
       <c r="S11">
-        <v>0.06534413308992895</v>
+        <v>0.01334202724519122</v>
       </c>
       <c r="T11">
-        <v>0.05573115676367877</v>
+        <v>0.01011008833368923</v>
       </c>
     </row>
   </sheetData>
